--- a/artfynd/A 53458-2018.xlsx
+++ b/artfynd/A 53458-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>804621</v>
+        <v>89591434</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Bydalsfjällen, Jmt</t>
+          <t>Bydalen, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>437949.5514474595</v>
+        <v>438527.891822285</v>
       </c>
       <c r="R2" t="n">
-        <v>6997517.952700473</v>
+        <v>6997593.894236865</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2006-07-14</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2006-07-14</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -776,36 +776,30 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>i granskog nära bäck</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>riklig på rönnhögstubbe (10 cm dbh)</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Fredrik Jonsson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Fredrik Jonsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>392441</v>
+        <v>89591402</v>
       </c>
       <c r="B3" t="n">
-        <v>81235</v>
+        <v>89410</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -818,37 +812,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Bydalsfjällen, Jmt</t>
+          <t>Bydalen, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>437946.1123093686</v>
+        <v>438569.0852382015</v>
       </c>
       <c r="R3" t="n">
-        <v>6997551.534068376</v>
+        <v>6997541.935255783</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -872,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2006-07-14</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -882,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2006-07-14</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -898,36 +892,30 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>i granskog vid bäck</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>på bark vid basen av gammal gran (45 cm dbh)</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Fredrik Jonsson</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Fredrik Jonsson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>323193</v>
+        <v>804621</v>
       </c>
       <c r="B4" t="n">
-        <v>77587</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -940,37 +928,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>864</v>
+        <v>2081</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1-1,5 km V. om Bydalen, NV om Dalsjön, 18,5 km SV om Hallens kyrka, Jmt</t>
+          <t>Bydalsfjällen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>438005.0014296494</v>
+        <v>437949.5514474595</v>
       </c>
       <c r="R4" t="n">
-        <v>6997334.362134564</v>
+        <v>6997517.952700473</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -994,7 +982,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2008-10-11</t>
+          <t>2006-07-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1004,7 +992,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2008-10-11</t>
+          <t>2006-07-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1023,12 +1011,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>i gles 130-årig granskog av frisk blåbärstyp med björkinslag</t>
+          <t>i granskog nära bäck</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på bark på stam av levande björk (23 cm dbh)</t>
+          <t>riklig på rönnhögstubbe (10 cm dbh)</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1046,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2057469</v>
+        <v>392441</v>
       </c>
       <c r="B5" t="n">
-        <v>78595</v>
+        <v>81235</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1058,41 +1046,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1-1,5 km V. om Bydalen, NV om Dalsjön, 18,5 km SV om Hallens kyrka, Jmt</t>
+          <t>Bydalsfjällen, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>437984.4328541475</v>
+        <v>437946.1123093686</v>
       </c>
       <c r="R5" t="n">
-        <v>6997136.361508934</v>
+        <v>6997551.534068376</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1116,7 +1104,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2008-10-11</t>
+          <t>2006-07-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1114,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2008-10-11</t>
+          <t>2006-07-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1145,12 +1133,12 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>i 130-årig granskog av frisk blåbärstyp</t>
+          <t>i granskog vid bäck</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>på sälg (20 cm dbh)</t>
+          <t>på bark vid basen av gammal gran (45 cm dbh)</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1168,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>838468</v>
+        <v>323193</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>77587</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1172,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2081</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1208,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>437994.183619237</v>
+        <v>438005.0014296494</v>
       </c>
       <c r="R6" t="n">
-        <v>6997314.186602106</v>
+        <v>6997334.362134564</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1267,12 +1255,12 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>i 130-årig granskog av frisk blåbärstyp</t>
+          <t>i gles 130-årig granskog av frisk blåbärstyp med björkinslag</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>på bark på stam av död asp (37 cm dbh)</t>
+          <t>på bark på stam av levande björk (23 cm dbh)</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1290,7 +1278,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>838467</v>
+        <v>838468</v>
       </c>
       <c r="B7" t="n">
         <v>78569</v>
@@ -1330,10 +1318,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>437984.4328541475</v>
+        <v>437994.183619237</v>
       </c>
       <c r="R7" t="n">
-        <v>6997136.361508934</v>
+        <v>6997314.186602106</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1394,7 +1382,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>på sälg (20 cm dbh)</t>
+          <t>på bark på stam av död asp (37 cm dbh)</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1412,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2057468</v>
+        <v>358152</v>
       </c>
       <c r="B8" t="n">
-        <v>78595</v>
+        <v>77667</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1412,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>1249</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Norsk näverlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Platismatia norvegica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1452,10 +1440,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>437930.1424983229</v>
+        <v>438005.0014296494</v>
       </c>
       <c r="R8" t="n">
-        <v>6997072.625131503</v>
+        <v>6997334.362134564</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1511,12 +1499,12 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>i 130-årig granskog av frisk blåbärstyp</t>
+          <t>i gles 130-årig granskog av frisk blåbärstyp med björkinslag</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>på död rönn (25 cm dbh)</t>
+          <t>på bark på stam av levande björk (23 cm dbh)</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1534,10 +1522,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1933209</v>
+        <v>2057469</v>
       </c>
       <c r="B9" t="n">
-        <v>78601</v>
+        <v>78595</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1538,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6463</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>437930.1424983229</v>
+        <v>437984.4328541475</v>
       </c>
       <c r="R9" t="n">
-        <v>6997072.625131503</v>
+        <v>6997136.361508934</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,7 +1626,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>på död rönn (25 cm dbh)</t>
+          <t>på sälg (20 cm dbh)</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1656,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>838466</v>
+        <v>838467</v>
       </c>
       <c r="B10" t="n">
         <v>78569</v>
@@ -1696,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>437930.1424983229</v>
+        <v>437984.4328541475</v>
       </c>
       <c r="R10" t="n">
-        <v>6997072.625131503</v>
+        <v>6997136.361508934</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1760,7 +1748,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>på död rönn (25 cm dbh)</t>
+          <t>på sälg (20 cm dbh)</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1778,10 +1766,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>358152</v>
+        <v>2057468</v>
       </c>
       <c r="B11" t="n">
-        <v>77667</v>
+        <v>78595</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1790,25 +1778,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1249</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Norsk näverlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Platismatia norvegica</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1818,10 +1806,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>438005.0014296494</v>
+        <v>437930.1424983229</v>
       </c>
       <c r="R11" t="n">
-        <v>6997334.362134564</v>
+        <v>6997072.625131503</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1877,12 +1865,12 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>i gles 130-årig granskog av frisk blåbärstyp med björkinslag</t>
+          <t>i 130-årig granskog av frisk blåbärstyp</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>på bark på stam av levande björk (23 cm dbh)</t>
+          <t>på död rönn (25 cm dbh)</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1900,10 +1888,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>89591434</v>
+        <v>1933209</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>78601</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1912,20 +1900,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1936,14 +1924,14 @@
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Bydalen, Jmt</t>
+          <t>1-1,5 km V. om Bydalen, NV om Dalsjön, 18,5 km SV om Hallens kyrka, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>438527.891822285</v>
+        <v>437930.1424983229</v>
       </c>
       <c r="R12" t="n">
-        <v>6997593.894236865</v>
+        <v>6997072.625131503</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,7 +1958,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2008-10-11</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1980,7 +1968,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2008-10-11</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1996,30 +1984,36 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>i 130-årig granskog av frisk blåbärstyp</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>på död rönn (25 cm dbh)</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Fredrik Jonsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Fredrik Jonsson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89591402</v>
+        <v>838466</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2032,34 +2026,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Bydalen, Jmt</t>
+          <t>1-1,5 km V. om Bydalen, NV om Dalsjön, 18,5 km SV om Hallens kyrka, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>438569.0852382015</v>
+        <v>437930.1424983229</v>
       </c>
       <c r="R13" t="n">
-        <v>6997541.935255783</v>
+        <v>6997072.625131503</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2086,7 +2080,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2008-10-11</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2096,7 +2090,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2008-10-11</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2112,23 +2106,29 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>i 130-årig granskog av frisk blåbärstyp</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>på död rönn (25 cm dbh)</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Fredrik Jonsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Fredrik Jonsson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
